--- a/apa/F5media2017.xlsx
+++ b/apa/F5media2017.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ6"/>
+  <dimension ref="A1:BJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,828 +753,170 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43022</v>
+        <v>43015</v>
       </c>
       <c r="B2" t="n">
-        <v>54.3</v>
+        <v>23.95416666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>42.20833333333334</v>
+        <v>21.0625</v>
       </c>
       <c r="D2" t="n">
-        <v>54.0625</v>
+        <v>37.85</v>
       </c>
       <c r="E2" t="n">
-        <v>44.79166666666666</v>
+        <v>21.70833333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>61.9625</v>
+        <v>41.56666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.222222222222222</v>
-      </c>
-      <c r="I2" t="n">
-        <v>53.90416666666667</v>
-      </c>
+        <v>9.777777777777779</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>32.04166666666666</v>
+        <v>24.29166666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>36.03333333333333</v>
+        <v>47.17916666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>43.66666666666666</v>
+        <v>37</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>39</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>38</v>
+        <v>23.08333333333333</v>
       </c>
       <c r="S2" t="n">
-        <v>49.99583333333334</v>
+        <v>43.84166666666667</v>
       </c>
       <c r="T2" t="n">
-        <v>46.33333333333334</v>
+        <v>37.41666666666666</v>
       </c>
       <c r="U2" t="n">
-        <v>3.939130434782609</v>
+        <v>28.3</v>
       </c>
       <c r="V2" t="n">
-        <v>58.69583333333333</v>
+        <v>46.73333333333333</v>
       </c>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>7.166666666666667</v>
+      </c>
       <c r="Y2" t="n">
-        <v>52.23076923076923</v>
+        <v>10.78571428571429</v>
       </c>
       <c r="Z2" t="n">
-        <v>29.04761904761905</v>
+        <v>17.88888888888889</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.41666666666667</v>
+        <v>13.91666666666667</v>
       </c>
       <c r="AB2" t="n">
-        <v>35</v>
+        <v>38.125</v>
       </c>
       <c r="AC2" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>17.58333333333333</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>22.375</v>
+      </c>
       <c r="AE2" t="n">
-        <v>48.08333333333334</v>
+        <v>34.14285714285715</v>
       </c>
       <c r="AF2" t="n">
-        <v>32.04583333333333</v>
+        <v>23.92916666666666</v>
       </c>
       <c r="AG2" t="n">
-        <v>42.85416666666666</v>
+        <v>29.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>46.6</v>
+        <v>42.4</v>
       </c>
       <c r="AI2" t="n">
-        <v>13.20833333333333</v>
+        <v>19.375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38.3625</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AK2" t="n">
-        <v>37.65416666666666</v>
+        <v>23.775</v>
       </c>
       <c r="AL2" t="n">
-        <v>45.15416666666667</v>
-      </c>
-      <c r="AM2" t="inlineStr"/>
+        <v>31.87391304347826</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>23.86363636363636</v>
+      </c>
       <c r="AN2" t="n">
-        <v>35.025</v>
+        <v>14.975</v>
       </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="n">
-        <v>37.83333333333334</v>
+        <v>29.45833333333333</v>
       </c>
       <c r="AR2" t="n">
-        <v>59.41666666666666</v>
+        <v>41.44444444444444</v>
       </c>
       <c r="AS2" t="n">
-        <v>54.24583333333334</v>
+        <v>23.9</v>
       </c>
       <c r="AT2" t="n">
-        <v>51.61666666666667</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>32.69230769230769</v>
-      </c>
+        <v>27.825</v>
+      </c>
+      <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="n">
-        <v>62.26666666666667</v>
+        <v>49.00416666666666</v>
       </c>
       <c r="AW2" t="n">
-        <v>18.95833333333333</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AX2" t="n">
-        <v>61.11666666666667</v>
+        <v>41.94583333333333</v>
       </c>
       <c r="AY2" t="n">
-        <v>38.85833333333333</v>
+        <v>18.77916666666667</v>
       </c>
       <c r="AZ2" t="n">
-        <v>48.65416666666667</v>
+        <v>18.84583333333333</v>
       </c>
       <c r="BA2" t="n">
-        <v>71.80833333333334</v>
+        <v>40.84999999999999</v>
       </c>
       <c r="BB2" t="n">
-        <v>51.04583333333333</v>
+        <v>15.47083333333333</v>
       </c>
       <c r="BC2" t="n">
-        <v>36.91666666666666</v>
+        <v>41.625</v>
       </c>
       <c r="BD2" t="n">
-        <v>56.93333333333334</v>
+        <v>16.32916666666667</v>
       </c>
       <c r="BE2" t="n">
-        <v>79.25833333333334</v>
+        <v>24.55833333333333</v>
       </c>
       <c r="BF2" t="n">
-        <v>40.5</v>
+        <v>33.44444444444444</v>
       </c>
       <c r="BG2" t="n">
-        <v>33.08333333333334</v>
+        <v>29.875</v>
       </c>
       <c r="BH2" t="n">
-        <v>55.08333333333334</v>
+        <v>31.5</v>
       </c>
       <c r="BI2" t="n">
-        <v>47.83333333333334</v>
+        <v>28.54166666666667</v>
       </c>
       <c r="BJ2" t="n">
         <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>43023</v>
-      </c>
-      <c r="B3" t="n">
-        <v>59.06666666666666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>63.33333333333334</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.92916666666667</v>
-      </c>
-      <c r="E3" t="n">
-        <v>73.45833333333333</v>
-      </c>
-      <c r="F3" t="n">
-        <v>57.40833333333333</v>
-      </c>
-      <c r="G3" t="n">
-        <v>32</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.545454545454545</v>
-      </c>
-      <c r="I3" t="n">
-        <v>57.825</v>
-      </c>
-      <c r="J3" t="n">
-        <v>30.84166666666667</v>
-      </c>
-      <c r="K3" t="n">
-        <v>47.19583333333333</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>24.72222222222222</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
-        <v>93.95833333333333</v>
-      </c>
-      <c r="S3" t="n">
-        <v>59.05</v>
-      </c>
-      <c r="T3" t="n">
-        <v>72.54166666666667</v>
-      </c>
-      <c r="U3" t="n">
-        <v>8.4125</v>
-      </c>
-      <c r="V3" t="n">
-        <v>61.17083333333333</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>38.92307692307692</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5.857142857142857</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41.26666666666667</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>51.41666666666666</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>64.66666666666667</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>33.6625</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>50.14583333333334</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>48.56315789473685</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>16.625</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>44.09166666666667</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>62.04166666666666</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="n">
-        <v>42.5375</v>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
-        <v>82.125</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51.08333333333334</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>62.61666666666667</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>56.67083333333333</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67.27083333333333</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>22.70833333333333</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>58.8375</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>42.34583333333333</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>50.81666666666666</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>61.80869565217391</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>52.725</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>39.25</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>54.88333333333333</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>59.99166666666667</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>58.375</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>59.29166666666666</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>43024</v>
-      </c>
-      <c r="B4" t="n">
-        <v>64.25833333333334</v>
-      </c>
-      <c r="C4" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>93</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67.82083333333334</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>49.97777777777778</v>
-      </c>
-      <c r="K4" t="n">
-        <v>82.32916666666667</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>15.6375</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>631.7368421052631</v>
-      </c>
-      <c r="S4" t="n">
-        <v>57.35238095238095</v>
-      </c>
-      <c r="T4" t="n">
-        <v>75.95833333333333</v>
-      </c>
-      <c r="U4" t="n">
-        <v>6.733333333333333</v>
-      </c>
-      <c r="V4" t="n">
-        <v>59.12916666666667</v>
-      </c>
-      <c r="W4" t="n">
-        <v>64.29473684210525</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
-        <v>40.11111111111111</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>20.22222222222222</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.85714285714286</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>42.125</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>68</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>61.125</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>62.42083333333333</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>70.88333333333334</v>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>58.82083333333333</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>55.49166666666667</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>93.83749999999999</v>
-      </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
-        <v>65.85000000000001</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
-        <v>196.4166666666667</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>78.05</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>67.63333333333334</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>55.49583333333334</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>119.2916666666667</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>63.975</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>48.04166666666666</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>57.35</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>49.3375</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>78.9375</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>9.433333333333334</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>82.69565217391305</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>9.970833333333333</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>15.28333333333333</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>55.66666666666666</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>34.91666666666666</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>59.20833333333334</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>42.46153846153846</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0.7833333333333333</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>43025</v>
-      </c>
-      <c r="B5" t="n">
-        <v>28.80833333333333</v>
-      </c>
-      <c r="C5" t="n">
-        <v>17.54166666666667</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.15833333333333</v>
-      </c>
-      <c r="E5" t="n">
-        <v>45</v>
-      </c>
-      <c r="F5" t="n">
-        <v>23.59166666666667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>22.57142857142857</v>
-      </c>
-      <c r="H5" t="n">
-        <v>23.8125</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>19.09473684210526</v>
-      </c>
-      <c r="K5" t="n">
-        <v>65.59166666666667</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>15.2375</v>
-      </c>
-      <c r="N5" t="n">
-        <v>20</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>113.0833333333333</v>
-      </c>
-      <c r="S5" t="n">
-        <v>31.5304347826087</v>
-      </c>
-      <c r="T5" t="n">
-        <v>19.33333333333333</v>
-      </c>
-      <c r="U5" t="n">
-        <v>11.22916666666667</v>
-      </c>
-      <c r="V5" t="n">
-        <v>38.375</v>
-      </c>
-      <c r="W5" t="n">
-        <v>31.28333333333333</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12.53333333333333</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>14.875</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>59.25</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>47.95833333333334</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>33.91666666666666</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>28.21666666666667</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>23.87916666666667</v>
-      </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="n">
-        <v>3.416666666666667</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21.1375</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>18.47083333333333</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>31.32916666666667</v>
-      </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="n">
-        <v>24.01666666666667</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>14.66666666666667</v>
-      </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
-        <v>62.16666666666666</v>
-      </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="n">
-        <v>25.72916666666667</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>21.28333333333333</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>25.14285714285714</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>34.07916666666667</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>28.33333333333333</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>26.10416666666667</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>11.85833333333333</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>13.8375</v>
-      </c>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="n">
-        <v>11.7875</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>46.125</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>8.908333333333333</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>19.25416666666667</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>23.79166666666667</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>11.79166666666667</v>
-      </c>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="n">
-        <v>18.28571428571428</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0.7833333333333333</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>43026</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11.125</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.458333333333334</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.30416666666667</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16.08333333333333</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13.22083333333333</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.454545454545455</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.565217391304348</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.529166666666667</v>
-      </c>
-      <c r="L6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>20.07727272727273</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9.826086956521738</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.916666666666667</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>36.66666666666666</v>
-      </c>
-      <c r="S6" t="n">
-        <v>21.97083333333333</v>
-      </c>
-      <c r="T6" t="n">
-        <v>8.666666666666666</v>
-      </c>
-      <c r="U6" t="n">
-        <v>8.491666666666667</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5.983333333333333</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13.31666666666667</v>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
-        <v>12.66666666666667</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2.208333333333333</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.958333333333333</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10.64583333333333</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11.4125</v>
-      </c>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.920833333333333</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>6.1875</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>15.86666666666667</v>
-      </c>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="n">
-        <v>11.45833333333333</v>
-      </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>10.4375</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>17.29583333333333</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>9.191666666666666</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>14.77916666666667</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.238095238095238</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>8.491666666666667</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>6.6375</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>3.733333333333334</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>21.02142857142857</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>17.42916666666667</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>30.94117647058824</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>15.65833333333333</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>24.78333333333333</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>9.625</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>21.66666666666667</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>10.91666666666667</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0.85</v>
       </c>
     </row>
   </sheetData>
